--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Adora1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Adora1.xlsx
@@ -540,28 +540,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2316285</v>
+        <v>0.3372215</v>
       </c>
       <c r="N2">
-        <v>0.463257</v>
+        <v>0.674443</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>35.1440823910425</v>
+        <v>48.8240432870575</v>
       </c>
       <c r="R2">
-        <v>210.864494346255</v>
+        <v>292.944259722345</v>
       </c>
       <c r="S2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="T2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,28 +602,28 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H3">
         <v>246.746613</v>
       </c>
       <c r="I3">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J3">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2316285</v>
+        <v>0.3372215</v>
       </c>
       <c r="N3">
-        <v>0.463257</v>
+        <v>0.674443</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>19.0511826164235</v>
+        <v>27.7360876519265</v>
       </c>
       <c r="R3">
-        <v>114.307095698541</v>
+        <v>166.416525911559</v>
       </c>
       <c r="S3">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="T3">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,28 +664,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H4">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I4">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J4">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2316285</v>
+        <v>0.3372215</v>
       </c>
       <c r="N4">
-        <v>0.463257</v>
+        <v>0.674443</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>28.5932229067485</v>
+        <v>55.25680823084217</v>
       </c>
       <c r="R4">
-        <v>171.559337440491</v>
+        <v>331.540849385053</v>
       </c>
       <c r="S4">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="T4">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,28 +726,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H5">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I5">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J5">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2316285</v>
+        <v>0.3372215</v>
       </c>
       <c r="N5">
-        <v>0.463257</v>
+        <v>0.674443</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>11.58890949590625</v>
+        <v>19.22965457530425</v>
       </c>
       <c r="R5">
-        <v>46.355637983625</v>
+        <v>76.91861830121699</v>
       </c>
       <c r="S5">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="T5">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,28 +788,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H6">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I6">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J6">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2316285</v>
+        <v>0.3372215</v>
       </c>
       <c r="N6">
-        <v>0.463257</v>
+        <v>0.674443</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>35.750232170835</v>
+        <v>49.87156398711667</v>
       </c>
       <c r="R6">
-        <v>214.50139302501</v>
+        <v>299.2293839227</v>
       </c>
       <c r="S6">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="T6">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
     </row>
   </sheetData>
